--- a/丽水适应大规模新能源接入的区域电网与柔性可调资源协同规划技术/data/ES/ess.xlsx
+++ b/丽水适应大规模新能源接入的区域电网与柔性可调资源协同规划技术/data/ES/ess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\丽水适应大规模新能源接入的区域电网与柔性可调资源协同规划技术\data\ES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C8CC6-584B-47B4-A540-03B837261F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B5DF0-4F4E-42A0-8F6B-EFD69B2F626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1020" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F151"/>
+      <selection activeCell="B2" sqref="B2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>41</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>43</v>
@@ -710,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>43</v>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>43</v>
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>36</v>
@@ -915,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>49</v>
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>46</v>
@@ -997,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>43</v>
@@ -1038,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>46</v>
@@ -1079,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>38</v>
@@ -1120,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>48</v>
@@ -1161,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>40</v>
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>39</v>
@@ -1243,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>47</v>
@@ -1284,7 +1284,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>50</v>
@@ -1325,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>44</v>
@@ -1366,7 +1366,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -1448,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>50</v>
@@ -1489,7 +1489,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>35</v>
@@ -1530,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>48</v>
@@ -1571,7 +1571,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>38</v>
@@ -1612,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>35</v>
@@ -1653,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>42</v>
@@ -1694,7 +1694,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>44</v>
@@ -1735,7 +1735,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -1776,7 +1776,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -1817,7 +1817,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>46</v>
@@ -1858,7 +1858,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1899,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>44</v>
@@ -1940,7 +1940,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>46</v>
@@ -1981,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>45</v>
@@ -2022,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>43</v>
@@ -2063,7 +2063,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>35</v>
@@ -2104,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -2186,7 +2186,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>39</v>
@@ -2227,7 +2227,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>39</v>
@@ -2268,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>38</v>
@@ -2309,7 +2309,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>42</v>
@@ -2350,7 +2350,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>38</v>
@@ -2391,7 +2391,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>36</v>
@@ -2432,7 +2432,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>39</v>
@@ -2473,7 +2473,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>35</v>
@@ -2514,7 +2514,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>45</v>
@@ -2555,7 +2555,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>40</v>
@@ -2596,7 +2596,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>43</v>
@@ -2678,7 +2678,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>47</v>
@@ -2719,7 +2719,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>44</v>
@@ -2760,7 +2760,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>46</v>
@@ -2801,7 +2801,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -2842,7 +2842,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>47</v>
@@ -2883,7 +2883,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>37</v>
@@ -2965,7 +2965,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>37</v>
@@ -3006,7 +3006,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>44</v>
@@ -3047,7 +3047,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>48</v>
@@ -3088,7 +3088,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>50</v>
@@ -3129,7 +3129,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>44</v>
@@ -3170,7 +3170,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>42</v>
@@ -3211,7 +3211,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>38</v>
@@ -3252,7 +3252,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>49</v>
@@ -3293,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>46</v>
@@ -3375,7 +3375,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>45</v>
@@ -3416,7 +3416,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>43</v>
@@ -3457,7 +3457,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C75">
         <v>38</v>
@@ -3539,7 +3539,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>49</v>
@@ -3580,7 +3580,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>43</v>
@@ -3621,7 +3621,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>35</v>
@@ -3662,7 +3662,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>45</v>
@@ -3703,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>44</v>
@@ -3785,7 +3785,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>35</v>
@@ -3826,7 +3826,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>46</v>
@@ -3867,7 +3867,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>42</v>
@@ -3908,7 +3908,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>37</v>
@@ -3949,7 +3949,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>39</v>
@@ -3990,7 +3990,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>38</v>
@@ -4031,7 +4031,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89">
         <v>46</v>
@@ -4072,7 +4072,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90">
         <v>37</v>
@@ -4113,7 +4113,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>47</v>
@@ -4154,7 +4154,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>36</v>
@@ -4195,7 +4195,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>39</v>
@@ -4236,7 +4236,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>42</v>
@@ -4277,7 +4277,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>38</v>
@@ -4318,7 +4318,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>38</v>
@@ -4441,7 +4441,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>48</v>
@@ -4482,7 +4482,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>49</v>
@@ -4523,7 +4523,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>50</v>
@@ -4564,7 +4564,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>36</v>
@@ -4605,7 +4605,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103">
         <v>37</v>
@@ -4646,7 +4646,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>40</v>
@@ -4687,7 +4687,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>36</v>
@@ -4728,7 +4728,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>48</v>
@@ -4769,7 +4769,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107">
         <v>39</v>
@@ -4810,7 +4810,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>45</v>
@@ -4851,7 +4851,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C109">
         <v>40</v>
@@ -4892,7 +4892,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>45</v>
@@ -4933,7 +4933,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>37</v>
@@ -4974,7 +4974,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -5015,7 +5015,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>40</v>
@@ -5056,7 +5056,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>43</v>
@@ -5097,7 +5097,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>47</v>
@@ -5138,7 +5138,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C116">
         <v>49</v>
@@ -5179,7 +5179,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <v>49</v>
@@ -5220,7 +5220,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>49</v>
@@ -5261,7 +5261,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C119">
         <v>44</v>
@@ -5343,7 +5343,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>48</v>
@@ -5384,7 +5384,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122">
         <v>38</v>
@@ -5425,7 +5425,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>44</v>
@@ -5466,7 +5466,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C124">
         <v>38</v>
@@ -5507,7 +5507,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>40</v>
@@ -5548,7 +5548,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>46</v>
@@ -5589,7 +5589,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C127">
         <v>41</v>
@@ -5630,7 +5630,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C128">
         <v>42</v>
@@ -5671,7 +5671,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>41</v>
@@ -5712,7 +5712,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>50</v>
@@ -5753,7 +5753,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>47</v>
@@ -5794,7 +5794,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>50</v>
@@ -5835,7 +5835,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>38</v>
@@ -5876,7 +5876,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>50</v>
@@ -5917,7 +5917,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>38</v>
@@ -5999,7 +5999,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>49</v>
@@ -6040,7 +6040,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>40</v>
@@ -6081,7 +6081,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>47</v>
@@ -6122,7 +6122,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>50</v>
@@ -6163,7 +6163,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C141">
         <v>41</v>
@@ -6204,7 +6204,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C142">
         <v>44</v>
@@ -6245,7 +6245,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>42</v>
@@ -6368,7 +6368,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C146">
         <v>37</v>
@@ -6409,7 +6409,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C147">
         <v>41</v>
@@ -6450,7 +6450,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148">
         <v>39</v>
@@ -6491,7 +6491,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C149">
         <v>48</v>
@@ -6532,7 +6532,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>35</v>
@@ -6573,7 +6573,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151">
         <v>50</v>
